--- a/Technology/Software/ANSYS.xlsx
+++ b/Technology/Software/ANSYS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A084C4F3-7CE2-7D49-91A2-1078B2F770AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7181DAB-C2E4-0B47-9ED5-EBCB6351B373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2451,11 +2451,11 @@
     <v>Powered by Refinitiv</v>
     <v>333.89</v>
     <v>194.23</v>
-    <v>1.2458</v>
-    <v>0.79</v>
-    <v>2.5850000000000001E-3</v>
-    <v>0.17</v>
-    <v>5.5489999999999999E-4</v>
+    <v>1.2450000000000001</v>
+    <v>13.09</v>
+    <v>4.2733999999999994E-2</v>
+    <v>0.6</v>
+    <v>1.879E-3</v>
     <v>USD</v>
     <v>ANSYS, Inc. develops and globally markets engineering simulation software and services used by engineers, designers, researchers and students. The Company caters to a range of industries and academia, including high-tech, aerospace and defense, automotive, energy, industrial equipment, materials and chemicals, consumer products, healthcare, and construction. The Company’s solutions enable users to analyze designs on-premises and/or via the cloud, providing a common platform for product development, from design concept to final-stage testing, validation and deployment. The Company distributes its suite of simulation technologies through direct sales offices and a network of independent resellers and distributors. Its product portfolio consists of ANSYS Workbench, Structures, Fluids, Electronics, Semiconductors, Multiphysics, Embedded Software, Systems, Three-Dimensional (3D) Design, and Optical. Its structural analysis product offers simulation tools for product design and optimization.</v>
     <v>5600</v>
@@ -2463,26 +2463,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2600 Ansys Drive, Southpointe, CANONSBURG, PA, 15317 US</v>
-    <v>309.08499999999998</v>
+    <v>319.98</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45068.889689710159</v>
+    <v>45072.973321423437</v>
     <v>4</v>
-    <v>304.08</v>
-    <v>26548701509</v>
+    <v>308.12</v>
+    <v>27679630000</v>
     <v>ANSYS, INC.</v>
     <v>ANSYS, INC.</v>
-    <v>305.88</v>
-    <v>48.278399999999998</v>
-    <v>305.56</v>
-    <v>306.35000000000002</v>
-    <v>306.52</v>
+    <v>308.16000000000003</v>
+    <v>48.396900000000002</v>
+    <v>306.31</v>
+    <v>319.39999999999998</v>
+    <v>320</v>
     <v>86661340</v>
     <v>ANSS</v>
     <v>ANSYS, INC. (XNAS:ANSS)</v>
-    <v>335365</v>
-    <v>410644</v>
+    <v>751831</v>
+    <v>425859</v>
     <v>1994</v>
   </rv>
   <rv s="4">
@@ -3106,10 +3106,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF25" sqref="AF25"/>
+      <selection pane="bottomRight" activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4767,15 +4767,15 @@
       </c>
       <c r="AI16" s="24">
         <f>AJ101/AB3</f>
-        <v>12.853072038819628</v>
+        <v>13.400590544033486</v>
       </c>
       <c r="AJ16" s="24">
         <f>AJ101/AB28</f>
-        <v>50.693516467128752</v>
+        <v>52.852972064692288</v>
       </c>
       <c r="AK16" s="25">
         <f>AJ101/AB106</f>
-        <v>44.100833071428575</v>
+        <v>45.979451827242528</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="AJ95" s="33" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.2458</v>
+        <v>1.2450000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AJ97" s="31">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.458169000000001E-2</v>
+        <v>9.4547250000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="AJ100" s="29">
         <f>AJ99/AJ103</f>
-        <v>2.7601142613610713E-2</v>
+        <v>2.6503309299929757E-2</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="AJ101" s="34" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>26548701509</v>
+        <v>27679630000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="AJ102" s="29">
         <f>AJ101/AJ103</f>
-        <v>0.97239885738638931</v>
+        <v>0.97349669070007028</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="AJ103" s="35">
         <f>AJ99+AJ101</f>
-        <v>27302275509</v>
+        <v>28433204000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="AJ105" s="37">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>9.2728848290899765E-2</v>
+        <v>9.2769017700612952E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12890,7 +12890,7 @@
       <c r="AF107" s="39"/>
       <c r="AG107" s="42">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>14247939357.232887</v>
+        <v>14239494033.203878</v>
       </c>
       <c r="AH107" s="43" t="s">
         <v>147</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="AG108" s="42">
         <f>AG107+AG106</f>
-        <v>15189399379.851391</v>
+        <v>15180954055.822382</v>
       </c>
       <c r="AH108" s="43" t="s">
         <v>143</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="AJ108" s="47">
         <f>AJ105</f>
-        <v>9.2728848290899765E-2</v>
+        <v>9.2769017700612952E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="AD110" s="34">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>12161976063.81856</v>
+        <v>12154542811.98914</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="AD113" s="34">
         <f>AD110+AD111-AD112</f>
-        <v>12637550063.81856</v>
+        <v>12630116811.98914</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="AD115" s="58">
         <f>AD113/AD114</f>
-        <v>144.03553841063083</v>
+        <v>143.95081847488493</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="AD116" s="51" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>306.35000000000002</v>
+        <v>319.39999999999998</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="AD117" s="53">
         <f>AD115/AD116-1</f>
-        <v>-0.52983339836582077</v>
+        <v>-0.54930864597719187</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ANSYS.xlsx
+++ b/Technology/Software/ANSYS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7181DAB-C2E4-0B47-9ED5-EBCB6351B373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7AB344-8D20-7E48-B538-C469C23B54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2449,13 +2449,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>333.89</v>
+    <v>339.55</v>
     <v>194.23</v>
-    <v>1.2450000000000001</v>
-    <v>13.09</v>
-    <v>4.2733999999999994E-2</v>
-    <v>0.6</v>
-    <v>1.879E-3</v>
+    <v>1.2325999999999999</v>
+    <v>0.63</v>
+    <v>1.9380000000000001E-3</v>
     <v>USD</v>
     <v>ANSYS, Inc. develops and globally markets engineering simulation software and services used by engineers, designers, researchers and students. The Company caters to a range of industries and academia, including high-tech, aerospace and defense, automotive, energy, industrial equipment, materials and chemicals, consumer products, healthcare, and construction. The Company’s solutions enable users to analyze designs on-premises and/or via the cloud, providing a common platform for product development, from design concept to final-stage testing, validation and deployment. The Company distributes its suite of simulation technologies through direct sales offices and a network of independent resellers and distributors. Its product portfolio consists of ANSYS Workbench, Structures, Fluids, Electronics, Semiconductors, Multiphysics, Embedded Software, Systems, Three-Dimensional (3D) Design, and Optical. Its structural analysis product offers simulation tools for product design and optimization.</v>
     <v>5600</v>
@@ -2463,26 +2461,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2600 Ansys Drive, Southpointe, CANONSBURG, PA, 15317 US</v>
-    <v>319.98</v>
+    <v>326.90499999999997</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.973321423437</v>
+    <v>45099.972669293747</v>
     <v>4</v>
-    <v>308.12</v>
-    <v>27679630000</v>
+    <v>321.02999999999997</v>
+    <v>28223865211</v>
     <v>ANSYS, INC.</v>
     <v>ANSYS, INC.</v>
-    <v>308.16000000000003</v>
-    <v>48.396900000000002</v>
-    <v>306.31</v>
-    <v>319.39999999999998</v>
-    <v>320</v>
+    <v>323.60000000000002</v>
+    <v>51.457299999999996</v>
+    <v>325.05</v>
+    <v>325.68</v>
     <v>86661340</v>
     <v>ANSS</v>
     <v>ANSYS, INC. (XNAS:ANSS)</v>
-    <v>751831</v>
-    <v>425859</v>
+    <v>324678</v>
+    <v>496162</v>
     <v>1994</v>
   </rv>
   <rv s="4">
@@ -2526,8 +2523,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2549,7 +2544,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2566,7 +2560,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2577,16 +2571,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2659,19 +2650,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2725,9 +2710,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2735,9 +2717,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3106,10 +3085,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC19" sqref="AC19"/>
+      <selection pane="bottomRight" activeCell="AC126" sqref="AC126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4767,15 +4746,15 @@
       </c>
       <c r="AI16" s="24">
         <f>AJ101/AB3</f>
-        <v>13.400590544033486</v>
+        <v>13.664072144844503</v>
       </c>
       <c r="AJ16" s="24">
         <f>AJ101/AB28</f>
-        <v>52.852972064692288</v>
+        <v>53.892164004888201</v>
       </c>
       <c r="AK16" s="25">
         <f>AJ101/AB106</f>
-        <v>45.979451827242528</v>
+        <v>46.883497028239205</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11783,7 +11762,7 @@
       </c>
       <c r="AJ95" s="33" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.2450000000000001</v>
+        <v>1.2325999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11968,7 +11947,7 @@
       </c>
       <c r="AJ97" s="31">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.4547250000000013E-2</v>
+        <v>9.4013430000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12244,7 +12223,7 @@
       </c>
       <c r="AJ100" s="29">
         <f>AJ99/AJ103</f>
-        <v>2.6503309299929757E-2</v>
+        <v>2.6005541570213665E-2</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12337,7 +12316,7 @@
       </c>
       <c r="AJ101" s="34" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>27679630000</v>
+        <v>28223865211</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12430,7 +12409,7 @@
       </c>
       <c r="AJ102" s="29">
         <f>AJ101/AJ103</f>
-        <v>0.97349669070007028</v>
+        <v>0.97399445842978638</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -12523,7 +12502,7 @@
       </c>
       <c r="AJ103" s="35">
         <f>AJ99+AJ101</f>
-        <v>28433204000</v>
+        <v>28977439211</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12736,7 +12715,7 @@
       </c>
       <c r="AJ105" s="37">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>9.2769017700612952E-2</v>
+        <v>9.2282477568698187E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12890,7 +12869,7 @@
       <c r="AF107" s="39"/>
       <c r="AG107" s="42">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>14239494033.203878</v>
+        <v>14342464160.87554</v>
       </c>
       <c r="AH107" s="43" t="s">
         <v>147</v>
@@ -12921,7 +12900,7 @@
       </c>
       <c r="AG108" s="42">
         <f>AG107+AG106</f>
-        <v>15180954055.822382</v>
+        <v>15283924183.494043</v>
       </c>
       <c r="AH108" s="43" t="s">
         <v>143</v>
@@ -12931,7 +12910,7 @@
       </c>
       <c r="AJ108" s="47">
         <f>AJ105</f>
-        <v>9.2769017700612952E-2</v>
+        <v>9.2282477568698187E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12946,7 +12925,7 @@
       </c>
       <c r="AD110" s="34">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>12154542811.98914</v>
+        <v>12245175425.98061</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12973,7 +12952,7 @@
       </c>
       <c r="AD113" s="34">
         <f>AD110+AD111-AD112</f>
-        <v>12630116811.98914</v>
+        <v>12720749425.98061</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12991,7 +12970,7 @@
       </c>
       <c r="AD115" s="58">
         <f>AD113/AD114</f>
-        <v>143.95081847488493</v>
+        <v>144.98379696263777</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -13000,7 +12979,7 @@
       </c>
       <c r="AD116" s="51" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>319.39999999999998</v>
+        <v>325.68</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -13009,7 +12988,7 @@
       </c>
       <c r="AD117" s="53">
         <f>AD115/AD116-1</f>
-        <v>-0.54930864597719187</v>
+        <v>-0.55482744730214395</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
